--- a/medicine/Enfance/Norma_Huidobro/Norma_Huidobro.xlsx
+++ b/medicine/Enfance/Norma_Huidobro/Norma_Huidobro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Norma Huidobro, née le 28 juillet 1949 à Lanús, dans la province de Buenos Aires, est une écrivaine, philosophe et professeure argentine connue pour son roman Octobre, un crime.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Norma Huidobro nait en 1949 à Lanús. Elle reçoit un diplôme de lettres après des études à l'Université de Buenos Aires. Elle a enseigné des cours de langue et de littérature dans plusieurs écoles secondaires et a animé plusieurs ateliers littéraires. La plupart de ses œuvres sont destinées aux enfants et aux adolescents, bien qu'elle ait écrit certains ouvrages pour adultes.
 </t>
@@ -542,7 +556,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle reçoit en 2000 le prix Lire, c'est vivre accordé par la mairie (es) de León, en collaboration avec le Grupo Everest, dans la catégorie enfants pour son livre Los cuentos del abuelo Florián. En 2004, son roman Octobre, un crime reçoit le  Prix du bateau à vapeur (es) d'Editorial SM. C'est au tour de son roman Le Lieu perdu de recevoir un prix, en 2007, avec le prix Clairon de roman.
 </t>
@@ -575,14 +591,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Los casos de Anita Demare
-El anillo de esmeraldas, Grupo Editorial Norma, 2012,  (ISBN 9789875453012) ;
+          <t>Série Los casos de Anita Demare</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>El anillo de esmeraldas, Grupo Editorial Norma, 2012,  (ISBN 9789875453012) ;
 El paraguas floreado, Grupo Editorial Norma, 2012,  (ISBN 978-987-54-5302-9) ;
 Una luz muy extraña, Grupo Editorial Norma, 2013 ,  (ISBN 978-987-54-5611-2) ;
 La gata en el balcón, Grupo Editorial Norma, 2014,  (ISBN 978-987-545-654-9) ;
-La sopa envenenada, Grupo Editorial Norma, 2016,  (ISBN 9789875457058) .
-Autres
-¿Quién conoce a Greta Garbo?, Grupo Editorial Norma, 2000,  (ISBN 978-987-9334-53-9) ;
+La sopa envenenada, Grupo Editorial Norma, 2016,  (ISBN 9789875457058) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Norma_Huidobro</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Norma_Huidobro</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>¿Quién conoce a Greta Garbo?, Grupo Editorial Norma, 2000,  (ISBN 978-987-9334-53-9) ;
 El sospechoso viste de negro, Grupo Editorial Norma, 2001,  (ISBN 978-987-545-036-3) ;
 Octobre, un crime (Octubre, un crimen), Editorial SM, 2004,  (ISBN 978-987-573-002-1) ;
 Le mystère du majordome (El misterio del mayordomo), Grupo Editorial Norma, 2005,  (ISBN 978-987-545-213-8) ;
